--- a/Batch/16/Curriculum/Day_8_Error.xlsx
+++ b/Batch/16/Curriculum/Day_8_Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\15\Curriculum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\16\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA69DB4-9DC7-4C65-A1F0-D12EC7B38056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB0E55-E196-4151-BBA7-21E095DAC747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#NA" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17250FE-599C-497B-986D-5876B150BF07}">
   <dimension ref="C1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
